--- a/17.staff/00.files/type.all.xlsx
+++ b/17.staff/00.files/type.all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\17.staff\00.files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53766289-55DF-45D4-A6FE-4500722E9F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0695924-0CD2-486F-97CA-8EAF06381D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9053,9 +9053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E2E004-6B99-46E1-B928-09A8F369DC33}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
